--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp7-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp7-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Bmp7</t>
+  </si>
+  <si>
+    <t>Acvr2a</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Bmp7</t>
-  </si>
-  <si>
-    <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H2">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I2">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N2">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O2">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P2">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q2">
-        <v>2.05980994830225</v>
+        <v>1.952897585345</v>
       </c>
       <c r="R2">
-        <v>8.239239793208998</v>
+        <v>7.81159034138</v>
       </c>
       <c r="S2">
-        <v>0.08281061403116917</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="T2">
-        <v>0.052320642331878</v>
+        <v>0.1687294465231367</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H3">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I3">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>78.962081</v>
       </c>
       <c r="O3">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P3">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q3">
-        <v>5.076616951305166</v>
+        <v>3.468935821798333</v>
       </c>
       <c r="R3">
-        <v>30.45970170783099</v>
+        <v>20.81361493079</v>
       </c>
       <c r="S3">
-        <v>0.2040954153489384</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="T3">
-        <v>0.1934245389853401</v>
+        <v>0.4495716715730233</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H4">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I4">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N4">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O4">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P4">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q4">
-        <v>1.14330424384</v>
+        <v>1.114086462715</v>
       </c>
       <c r="R4">
-        <v>6.859825463039999</v>
+        <v>6.684518776289999</v>
       </c>
       <c r="S4">
-        <v>0.04596430196624104</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="T4">
-        <v>0.04356111528719541</v>
+        <v>0.144384831270821</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H5">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I5">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N5">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O5">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P5">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q5">
-        <v>3.364926224927499</v>
+        <v>1.1686565119525</v>
       </c>
       <c r="R5">
-        <v>13.45970489971</v>
+        <v>4.67462604781</v>
       </c>
       <c r="S5">
-        <v>0.1352802510180623</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="T5">
-        <v>0.08547152693999634</v>
+        <v>0.1009713811503176</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H6">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I6">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N6">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O6">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P6">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q6">
-        <v>2.037094647062166</v>
+        <v>0.4976015556716666</v>
       </c>
       <c r="R6">
-        <v>12.222567882373</v>
+        <v>2.985609334029999</v>
       </c>
       <c r="S6">
-        <v>0.08189738995185802</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="T6">
-        <v>0.07761548621000496</v>
+        <v>0.06448881577886201</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H7">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I7">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N7">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O7">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P7">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q7">
-        <v>1.171031318509833</v>
+        <v>0.554430856765</v>
       </c>
       <c r="R7">
-        <v>7.026187911058999</v>
+        <v>3.32658514059</v>
       </c>
       <c r="S7">
-        <v>0.04707901455445312</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="T7">
-        <v>0.04461754650642415</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.390391</v>
-      </c>
-      <c r="I8">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J8">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>10.6794795</v>
-      </c>
-      <c r="N8">
-        <v>21.358959</v>
-      </c>
-      <c r="O8">
-        <v>0.1386817475209803</v>
-      </c>
-      <c r="P8">
-        <v>0.1052706227093344</v>
-      </c>
-      <c r="Q8">
-        <v>1.3897242271615</v>
-      </c>
-      <c r="R8">
-        <v>8.338345362968999</v>
-      </c>
-      <c r="S8">
-        <v>0.05587113348981107</v>
-      </c>
-      <c r="T8">
-        <v>0.05294998037745641</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.390391</v>
-      </c>
-      <c r="I9">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J9">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>26.32069366666667</v>
-      </c>
-      <c r="N9">
-        <v>78.962081</v>
-      </c>
-      <c r="O9">
-        <v>0.3417956646349414</v>
-      </c>
-      <c r="P9">
-        <v>0.3891756820777129</v>
-      </c>
-      <c r="Q9">
-        <v>3.425120640407889</v>
-      </c>
-      <c r="R9">
-        <v>30.826085763671</v>
-      </c>
-      <c r="S9">
-        <v>0.137700249286003</v>
-      </c>
-      <c r="T9">
-        <v>0.1957511430923728</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.390391</v>
-      </c>
-      <c r="I10">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J10">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>5.92768</v>
-      </c>
-      <c r="N10">
-        <v>17.78304</v>
-      </c>
-      <c r="O10">
-        <v>0.07697575721224656</v>
-      </c>
-      <c r="P10">
-        <v>0.08764620478296729</v>
-      </c>
-      <c r="Q10">
-        <v>0.7713709742933332</v>
-      </c>
-      <c r="R10">
-        <v>6.94233876864</v>
-      </c>
-      <c r="S10">
-        <v>0.03101145524600551</v>
-      </c>
-      <c r="T10">
-        <v>0.04408508949577189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.390391</v>
-      </c>
-      <c r="I11">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J11">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>17.446105</v>
-      </c>
-      <c r="N11">
-        <v>34.89221</v>
-      </c>
-      <c r="O11">
-        <v>0.2265518959828062</v>
-      </c>
-      <c r="P11">
-        <v>0.1719711468337415</v>
-      </c>
-      <c r="Q11">
-        <v>2.270267459018333</v>
-      </c>
-      <c r="R11">
-        <v>13.62160475411</v>
-      </c>
-      <c r="S11">
-        <v>0.09127164496474388</v>
-      </c>
-      <c r="T11">
-        <v>0.08649961989374522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.390391</v>
-      </c>
-      <c r="I12">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J12">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>10.56170766666667</v>
-      </c>
-      <c r="N12">
-        <v>31.685123</v>
-      </c>
-      <c r="O12">
-        <v>0.1371523842542203</v>
-      </c>
-      <c r="P12">
-        <v>0.1561645691080663</v>
-      </c>
-      <c r="Q12">
-        <v>1.374398539232555</v>
-      </c>
-      <c r="R12">
-        <v>12.369586853093</v>
-      </c>
-      <c r="S12">
-        <v>0.05525499430236224</v>
-      </c>
-      <c r="T12">
-        <v>0.0785490828980613</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.390391</v>
-      </c>
-      <c r="I13">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J13">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>6.071436333333334</v>
-      </c>
-      <c r="N13">
-        <v>18.214309</v>
-      </c>
-      <c r="O13">
-        <v>0.07884255039480526</v>
-      </c>
-      <c r="P13">
-        <v>0.08977177448817773</v>
-      </c>
-      <c r="Q13">
-        <v>0.7900780338687777</v>
-      </c>
-      <c r="R13">
-        <v>7.110702304819</v>
-      </c>
-      <c r="S13">
-        <v>0.03176353584035212</v>
-      </c>
-      <c r="T13">
-        <v>0.04515422798175359</v>
+        <v>0.07185385370383916</v>
       </c>
     </row>
   </sheetData>
